--- a/Powerbi_reports/arb_main_dataset.xlsx
+++ b/Powerbi_reports/arb_main_dataset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,7 +493,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>wav.اتصل 1</t>
+          <t>wav.اتصل 26</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -508,22 +508,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0:01:22</t>
+          <t>0:01:33</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5127.79296875</t>
+          <t>5861</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>مهارشي</t>
+          <t>سزدفغ</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>12-11-2011</t>
+          <t>12-12-1212</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -533,7 +533,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>محايد</t>
+          <t>سالب</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -543,7 +543,219 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>wav.اتصل 27</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Call_2.wav</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0:01:38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>6147</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>سزدفغ</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>12-12-1212</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>الإنكليزية</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>موجب</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>0.8571428571428571</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>wav.اتصل 28</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Call_3.wav</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0:01:02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>3885</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>سزدفغ</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>12-12-1212</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>wav.اتصل 29</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Call_4.wav</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0:01:29</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>5622</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>سزدفغ</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>12-12-1212</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>الإنكليزية</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>سالب</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
           <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>wav.اتصل 30</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Call_5.wav</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0:01:30</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>5640</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>سزدفغ</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>12-12-1212</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>الإنكليزية</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>سالب</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>0.0</t>
         </is>
       </c>
     </row>

--- a/Powerbi_reports/arb_main_dataset.xlsx
+++ b/Powerbi_reports/arb_main_dataset.xlsx
@@ -483,12 +483,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>wav.160260415</t>
+          <t>wav.161560999</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>160260415</t>
+          <t>161560999</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -498,32 +498,32 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0:01:41</t>
+          <t>0:01:46</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6358</t>
+          <t>6664</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>296118</t>
+          <t>298228</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>إسراء محمد عبد المنعم محمود</t>
+          <t>نورهان محمد عرفة اسماعيل</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2023-10-08 11:13:51</t>
+          <t>2023-10-12 12:28:22</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t xml:space="preserve">خط التصعيد الأول </t>
+          <t>عدم الاستقرار الجسدي - التصعيد الأول</t>
         </is>
       </c>
     </row>

--- a/Powerbi_reports/arb_main_dataset.xlsx
+++ b/Powerbi_reports/arb_main_dataset.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +425,335 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>audio_filename_2</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>id_2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recordingID_2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>CallDuration_2</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Audio_Size_2</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Call Category_2</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>AgentID_2</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Agent Name_2</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Call Date_2</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Comment_2</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>language_2</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Sentiment_2</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>AgentPercentage_2</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>CustomerPercentage_2</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>CallOpeningScore_2</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>CallClosingScore_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>wav.159775973</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159775973</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0:01:44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>6552</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>شكوى</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>219726</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>حسني عبد الحافظ راشد محمد</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2023-10-06 18:36:01</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>الإنكليزية</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>موجب</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0.2222222222222222</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0.2222222222222222</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>wav.159830825</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159830825</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0:01:22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>5127</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>ضرب الشركة</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>67516</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>حسام معوض ثابت محمد</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2023-10-06 21:36:23</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>الإنكليزية</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>59.17</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>40.83</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>wav.159385897</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159385897</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0:01:47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>6700</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>المكالمات العادية</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>261800</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>هدى عبده زغلول رسلان</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2023-10-05 13:59:28</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">خط التصعيد الأول </t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>الإنكليزية</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>محايد</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>88.00</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>